--- a/src/main/java/com/netflix/POM_Netflix/data/TestData.xlsx
+++ b/src/main/java/com/netflix/POM_Netflix/data/TestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginWithInvalidCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="LinksOnHomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +41,48 @@
   </si>
   <si>
     <t>fnsdln</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>keywordsForAssertions</t>
+  </si>
+  <si>
+    <t>//*[@id='kbArticle']/h1</t>
+  </si>
+  <si>
+    <t>Help Center</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Media Center</t>
+  </si>
+  <si>
+    <t>Investor Relations</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>//*[@id="pageContent"]/div/div/article/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="appMountPoint"]/div/div[2]/div/div/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="Layer_1"]</t>
+  </si>
+  <si>
+    <t>//*[@id="block-nir-pid1695-content"]/article/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="__next"]/div/div/header/section/div/a[2]/svg/g/path[2]</t>
   </si>
 </sst>
 </file>
@@ -63,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,10 +431,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -429,4 +479,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B740F-9DEE-4BA8-987E-D79DB87AF115}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/com/netflix/POM_Netflix/data/TestData.xlsx
+++ b/src/main/java/com/netflix/POM_Netflix/data/TestData.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="LoginWithInvalidCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="LinksOnHomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -61,9 +62,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>Media Center</t>
-  </si>
-  <si>
     <t>Investor Relations</t>
   </si>
   <si>
@@ -76,13 +74,61 @@
     <t>//*[@id="appMountPoint"]/div/div[2]/div/div/h1</t>
   </si>
   <si>
-    <t>//*[@id="Layer_1"]</t>
-  </si>
-  <si>
     <t>//*[@id="block-nir-pid1695-content"]/article/h1</t>
   </si>
   <si>
-    <t>//*[@id="__next"]/div/div/header/section/div/a[2]/svg/g/path[2]</t>
+    <t>//*[@id="downshift-input-7"]</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Ways to Watch</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Cookie Preferences</t>
+  </si>
+  <si>
+    <t>Corporate Information</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Speed Test</t>
+  </si>
+  <si>
+    <t>Netflix Originals</t>
+  </si>
+  <si>
+    <t>//*[@id="appMountPoint"]/div/div[2]/div/div/div[2]/form/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="video-background"]/h2</t>
+  </si>
+  <si>
+    <t>//*[@id="pageContent"]/div/section/div/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="cookies"]</t>
+  </si>
+  <si>
+    <t>//*[@id="kbArticle"]/h1</t>
+  </si>
+  <si>
+    <t>//*[@id="pageContent"]/div[2]/div</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[1]/div</t>
+  </si>
+  <si>
+    <t>//*[@id="appMountPoint"]/div/div[2]/h1</t>
   </si>
 </sst>
 </file>
@@ -483,10 +529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249B740F-9DEE-4BA8-987E-D79DB87AF115}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +545,7 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -516,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -524,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,27 +578,106 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBDCAE8-DCEF-46F3-B074-4F2F9AD02B84}">
+  <dimension ref="A7:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>